--- a/data/trans_bre/P31_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P31_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,83</t>
+          <t>3,05</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9,66</t>
+          <t>9,97</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,61</t>
+          <t>-0,47</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>26,8%</t>
+          <t>5,53</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>57,5%</t>
+          <t>20,27%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>30,68%</t>
+          <t>68,47%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-2,2%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>42,78%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 9,83</t>
+          <t>-4,96; 10,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,01; 15,93</t>
+          <t>0,85; 18,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 12,66</t>
+          <t>-19,06; 9,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,77; 88,41</t>
+          <t>-2,12; 14,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,44; 111,21</t>
+          <t>-26,46; 96,59</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-27,4; 91,48</t>
+          <t>3,91; 178,58</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-55,87; 69,35</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-13,77; 168,37</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9,02</t>
+          <t>10,46</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>13,92</t>
+          <t>12,16</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>14,26</t>
+          <t>15,49</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>49,19%</t>
+          <t>18,76</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>60,65%</t>
+          <t>70,62%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>77,74%</t>
+          <t>53,26%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>80,58%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>135,9%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 17,45</t>
+          <t>1,1; 19,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,25; 23,13</t>
+          <t>1,7; 23,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,5; 23,28</t>
+          <t>5,06; 26,69</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-15,81; 129,96</t>
+          <t>9,32; 33,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,71; 125,22</t>
+          <t>4,22; 182,04</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,76; 164,36</t>
+          <t>5,8; 134,94</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>19,39; 193,39</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>50,25; 347,38</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,77</t>
+          <t>-10,87</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>12,5</t>
+          <t>13,87</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>30,71</t>
+          <t>29,62</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>11,55%</t>
+          <t>16,71</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>48,18%</t>
+          <t>-28,48%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>280,77%</t>
+          <t>46,81%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1215,87%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>116,0%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-28,28; 20,05</t>
+          <t>-49,2; 19,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,24; 29,95</t>
+          <t>-29,94; 41,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15,26; 43,97</t>
+          <t>15,34; 46,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-67,24; 176,3</t>
+          <t>-2,76; 38,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-29,8; 210,34</t>
+          <t>-83,5; 139,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>65,98; 804,19</t>
+          <t>-54,57; 594,06</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-18,8; 964,24</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,6</t>
+          <t>4,35</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>11,33</t>
+          <t>11,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>11,78</t>
+          <t>9,19</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>32,8%</t>
+          <t>11,81</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>55,42%</t>
+          <t>24,73%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>67,67%</t>
+          <t>56,2%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>49,8%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>87,8%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 11,14</t>
+          <t>-3,8; 10,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,91; 16,61</t>
+          <t>2,66; 17,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,47; 16,78</t>
+          <t>-0,25; 17,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 82,74</t>
+          <t>5,89; 19,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>24,72; 96,89</t>
+          <t>-17,37; 79,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,21; 114,98</t>
+          <t>7,49; 111,24</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-7,28; 115,34</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>33,53; 184,89</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P31_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P31_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>3,05</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>9,97</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,47</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>5,53</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>20,27%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>68,47%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-2,2%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>42,78%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>2.129524784691267</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>9.183294866598047</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.4488285833495559</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>6.486425000020457</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.1400604215981337</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.5888138329191612</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.02159314967967848</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.4843868792991065</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-4,96; 10,67</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,85; 18,27</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-19,06; 9,52</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-2,12; 14,29</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-26,46; 96,59</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>3,91; 178,58</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-55,87; 69,35</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-13,77; 168,37</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-5.923540324522322</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>1.049318336694394</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-17.12257434992338</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-1.048123240617032</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.2950437648677468</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>0.0427471138965685</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.5346798528903035</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.07833781725642967</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>9.829280642338997</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>17.86834656429222</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>10.53935834662712</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>17.07128913501111</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.9045573221573715</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>1.689973739750434</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.7998884545708207</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>1.89688583468814</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>10,46</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>12,16</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>15,49</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>18,76</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>70,62%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>53,26%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>80,58%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>135,9%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>1,1; 19,53</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>1,7; 23,0</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>5,06; 26,69</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>9,32; 33,18</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>4,22; 182,04</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>5,8; 134,94</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>19,39; 193,39</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>50,25; 347,38</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>11.29532268968588</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>12.79832023421395</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>16.28144976621147</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>18.714133744902</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.792118055891138</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.5451218337184345</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.8747545744234005</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>1.397706974972363</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-10,87</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>13,87</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>29,62</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>16,71</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-28,48%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>46,81%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>1215,87%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>116,0%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>1.552909118663452</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>1.091261764049688</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>5.684772331646892</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>8.624685157179064</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>0.08180233377865054</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.04102322944738888</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>0.2359213307419507</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.4146280751895756</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-49,2; 19,41</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-29,94; 41,46</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>15,34; 46,48</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-2,76; 38,99</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-83,5; 139,92</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-54,57; 594,06</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-18,8; 964,24</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>20.30337204021357</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>23.68374617918519</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>27.21656014823359</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>30.1787838992619</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>2.118366403954265</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>1.323716978399784</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>2.099746804525799</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>3.34915293181078</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,97 +827,193 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>4,35</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>11,0</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>9,19</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>11,81</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>24,73%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>56,2%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>49,8%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>87,8%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-13.03740466419143</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>19.32268744665043</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>31.19177881243263</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>16.84802680197583</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.3379498422968986</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.7114353439126627</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>13.68828121859623</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>1.078435412060762</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-3,8; 10,54</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>2,66; 17,46</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-0,25; 17,28</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>5,89; 19,46</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-17,37; 79,35</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>7,49; 111,24</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-7,28; 115,34</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>33,53; 184,89</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-50.19231610211039</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-15.95605634467164</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>16.464889136463</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-5.812548026980415</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.8306582817510909</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.4433482248543868</v>
+      </c>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="n">
+        <v>-0.2649169648290274</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>18.13959627354559</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>43.70346590165989</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>48.76325841228946</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>39.94499308361525</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>1.379470451023489</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>6.136938615203449</v>
+      </c>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="n">
+        <v>8.478108257696038</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>4.29815621411603</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>11.35523594617646</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>10.21224518850195</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>12.31244208352712</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.2506675140142797</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.5628172489673831</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.5714541475626583</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.9018023314851942</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-3.882816077093606</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>4.782445130520132</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>1.464917532014212</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>5.759238945488091</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.1868568026097047</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.1733904211286511</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.01349155926141375</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.3291595392224764</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>10.61891316148139</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>18.49733466237612</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>18.28041441520801</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>20.07385247304963</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.7937428100586172</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>1.168883238193511</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>1.272887018986779</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.813032210611737</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1016,13 +1021,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
